--- a/azReportTemplate.xlsx
+++ b/azReportTemplate.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1117" documentId="13_ncr:1_{6F514D47-0C22-46E0-8930-DFE03F6E5842}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{371D61F2-B41A-44DE-8BB7-29EF3996BE15}"/>
+  <xr:revisionPtr revIDLastSave="1180" documentId="13_ncr:1_{6F514D47-0C22-46E0-8930-DFE03F6E5842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{C7C59CB7-ED83-4364-B9E5-3797F73BCC5D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2213" yWindow="2152" windowWidth="11985" windowHeight="9586" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VirtualMachine_windows" sheetId="9" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Pip" sheetId="24" r:id="rId10"/>
     <sheet name="StorageAccount" sheetId="25" r:id="rId11"/>
     <sheet name="StorageAccountAddOn" sheetId="28" r:id="rId12"/>
+    <sheet name="RecoveryServiceVault" sheetId="30" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="172">
   <si>
     <t>ResourceGroupName</t>
   </si>
@@ -509,6 +510,62 @@
   </si>
   <si>
     <t>VirtualNetworkResourceId</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Properties</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BackupProperties</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VaultProperties</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>StorageModelType</t>
+  </si>
+  <si>
+    <t>StorageType</t>
+  </si>
+  <si>
+    <t>StorageTypeState</t>
+  </si>
+  <si>
+    <t>EnhancedSecurityState</t>
+  </si>
+  <si>
+    <t>SoftDeleteFeatureState</t>
+  </si>
+  <si>
+    <t>encryptionProperties</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EncryptionAtRestType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KeyUri</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>InfrastructureEncryptionState</t>
+  </si>
+  <si>
+    <t>BackupStorageRedundancy</t>
+  </si>
+  <si>
+    <t>CrossRegionRestore</t>
+  </si>
+  <si>
+    <t>PrivateEndpointStateForBackup</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PrivateEndpointStateForSiteRecovery</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -789,7 +846,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -858,6 +915,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1179,14 +1237,14 @@
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="5" width="2.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="70.28515625" style="8" customWidth="1"/>
+    <col min="1" max="5" width="2.86328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="70.265625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1195,7 +1253,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -1206,7 +1264,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
@@ -1217,7 +1275,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
@@ -1228,7 +1286,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
@@ -1239,7 +1297,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
@@ -1250,7 +1308,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>5</v>
@@ -1261,7 +1319,7 @@
       <c r="F7" s="17"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="13" t="s">
@@ -1272,7 +1330,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="13" t="s">
@@ -1283,7 +1341,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
@@ -1294,7 +1352,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="20"/>
       <c r="B11" s="13" t="s">
         <v>9</v>
@@ -1305,7 +1363,7 @@
       <c r="F11" s="14"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="23" t="s">
         <v>10</v>
       </c>
@@ -1316,7 +1374,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="19"/>
       <c r="B13" s="23" t="s">
         <v>11</v>
@@ -1327,7 +1385,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="23"/>
@@ -1336,7 +1394,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -1347,7 +1405,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -1358,7 +1416,7 @@
       <c r="F16" s="14"/>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="16" t="s">
         <v>14</v>
       </c>
@@ -1369,7 +1427,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="19"/>
       <c r="B18" s="13" t="s">
         <v>15</v>
@@ -1380,7 +1438,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="25"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="19"/>
       <c r="B19" s="13" t="s">
         <v>16</v>
@@ -1391,7 +1449,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="27"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="19"/>
       <c r="B20" s="13" t="s">
         <v>17</v>
@@ -1402,7 +1460,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="25"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="19"/>
       <c r="B21" s="19" t="s">
         <v>18</v>
@@ -1413,7 +1471,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="28"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="13" t="s">
@@ -1424,7 +1482,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="25"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="13" t="s">
@@ -1435,7 +1493,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="13" t="s">
@@ -1446,7 +1504,7 @@
       <c r="F24" s="15"/>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
       <c r="C25" s="13" t="s">
@@ -1457,7 +1515,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="25"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
       <c r="C26" s="16" t="s">
@@ -1468,7 +1526,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="28"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -1479,7 +1537,7 @@
       <c r="F27" s="15"/>
       <c r="G27" s="25"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="19"/>
       <c r="B28" s="19"/>
       <c r="C28" s="20"/>
@@ -1490,7 +1548,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="25"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="19"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19" t="s">
@@ -1501,7 +1559,7 @@
       <c r="F29" s="26"/>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="19"/>
       <c r="B30" s="13" t="s">
         <v>27</v>
@@ -1512,7 +1570,7 @@
       <c r="F30" s="15"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="20"/>
       <c r="B31" s="13" t="s">
         <v>28</v>
@@ -1523,7 +1581,7 @@
       <c r="F31" s="15"/>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="11" t="s">
         <v>29</v>
       </c>
@@ -1534,7 +1592,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
         <v>30</v>
       </c>
@@ -1545,7 +1603,7 @@
       <c r="F33" s="15"/>
       <c r="G33" s="25"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="16" t="s">
         <v>31</v>
       </c>
@@ -1556,7 +1614,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="18"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="19"/>
       <c r="B35" s="16" t="s">
         <v>32</v>
@@ -1567,7 +1625,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="18"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="13" t="s">
@@ -1578,7 +1636,7 @@
       <c r="F36" s="14"/>
       <c r="G36" s="25"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="19"/>
       <c r="B37" s="19"/>
       <c r="C37" s="13" t="s">
@@ -1589,7 +1647,7 @@
       <c r="F37" s="14"/>
       <c r="G37" s="25"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="19"/>
       <c r="B38" s="19"/>
       <c r="C38" s="13" t="s">
@@ -1600,7 +1658,7 @@
       <c r="F38" s="14"/>
       <c r="G38" s="25"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="19"/>
       <c r="B39" s="19"/>
       <c r="C39" s="13" t="s">
@@ -1611,7 +1669,7 @@
       <c r="F39" s="14"/>
       <c r="G39" s="25"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="19"/>
       <c r="B40" s="19"/>
       <c r="C40" s="13" t="s">
@@ -1622,7 +1680,7 @@
       <c r="F40" s="14"/>
       <c r="G40" s="25"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="19"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13" t="s">
@@ -1633,7 +1691,7 @@
       <c r="F41" s="14"/>
       <c r="G41" s="25"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="19"/>
       <c r="B42" s="16" t="s">
         <v>38</v>
@@ -1644,7 +1702,7 @@
       <c r="F42" s="17"/>
       <c r="G42" s="18"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="19"/>
       <c r="B43" s="19"/>
       <c r="C43" s="13" t="s">
@@ -1655,7 +1713,7 @@
       <c r="F43" s="14"/>
       <c r="G43" s="25"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="19"/>
       <c r="B44" s="19"/>
       <c r="C44" s="13" t="s">
@@ -1666,7 +1724,7 @@
       <c r="F44" s="14"/>
       <c r="G44" s="25"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="19"/>
       <c r="B45" s="19"/>
       <c r="C45" s="13" t="s">
@@ -1677,7 +1735,7 @@
       <c r="F45" s="14"/>
       <c r="G45" s="25"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="19"/>
       <c r="B46" s="19"/>
       <c r="C46" s="13" t="s">
@@ -1688,7 +1746,7 @@
       <c r="F46" s="14"/>
       <c r="G46" s="25"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
       <c r="C47" s="13" t="s">
@@ -1699,7 +1757,7 @@
       <c r="F47" s="14"/>
       <c r="G47" s="25"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="13" t="s">
@@ -1710,7 +1768,7 @@
       <c r="F48" s="14"/>
       <c r="G48" s="25"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19" t="s">
@@ -1721,7 +1779,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="28"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -1732,7 +1790,7 @@
       <c r="F50" s="15"/>
       <c r="G50" s="25"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="19"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
@@ -1743,7 +1801,7 @@
       <c r="F51" s="15"/>
       <c r="G51" s="25"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="19"/>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
@@ -1754,7 +1812,7 @@
       <c r="F52" s="15"/>
       <c r="G52" s="25"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="19"/>
       <c r="B53" s="16" t="s">
         <v>47</v>
@@ -1765,7 +1823,7 @@
       <c r="F53" s="17"/>
       <c r="G53" s="29"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="13" t="s">
         <v>48</v>
       </c>
@@ -1776,7 +1834,7 @@
       <c r="F54" s="15"/>
       <c r="G54" s="25"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="13" t="s">
         <v>49</v>
       </c>
@@ -1787,7 +1845,7 @@
       <c r="F55" s="15"/>
       <c r="G55" s="25"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="13" t="s">
         <v>50</v>
       </c>
@@ -1798,7 +1856,7 @@
       <c r="F56" s="15"/>
       <c r="G56" s="25"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="13" t="s">
         <v>51</v>
       </c>
@@ -1809,7 +1867,7 @@
       <c r="F57" s="15"/>
       <c r="G57" s="25"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="13" t="s">
         <v>52</v>
       </c>
@@ -1820,7 +1878,7 @@
       <c r="F58" s="15"/>
       <c r="G58" s="25"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="13" t="s">
         <v>53</v>
       </c>
@@ -1831,7 +1889,7 @@
       <c r="F59" s="15"/>
       <c r="G59" s="25"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="13" t="s">
         <v>54</v>
       </c>
@@ -1854,19 +1912,19 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G11:G12"/>
+      <selection activeCell="A2" sqref="A2:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="5" width="2.85546875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="70.28515625" style="8" customWidth="1"/>
+    <col min="1" max="5" width="2.86328125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="70.265625" style="8" customWidth="1"/>
     <col min="8" max="32" width="9" style="10" customWidth="1"/>
     <col min="33" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1875,7 +1933,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -1886,7 +1944,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
@@ -1897,7 +1955,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
@@ -1908,7 +1966,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="24" t="s">
         <v>115</v>
       </c>
@@ -1919,7 +1977,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="24" t="s">
         <v>116</v>
       </c>
@@ -1930,7 +1988,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="24" t="s">
         <v>117</v>
       </c>
@@ -1941,7 +1999,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="24" t="s">
         <v>118</v>
       </c>
@@ -1952,7 +2010,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="33" t="s">
         <v>98</v>
       </c>
@@ -1963,7 +2021,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="19"/>
       <c r="B10" s="24" t="s">
         <v>119</v>
@@ -1974,7 +2032,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="25"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="19"/>
       <c r="B11" s="24" t="s">
         <v>120</v>
@@ -1985,7 +2043,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="25"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="19"/>
       <c r="B12" s="23" t="s">
         <v>121</v>
@@ -1996,7 +2054,7 @@
       <c r="F12" s="38"/>
       <c r="G12" s="25"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="24" t="s">
         <v>49</v>
       </c>
@@ -2007,7 +2065,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="23" t="s">
         <v>35</v>
       </c>
@@ -2018,7 +2076,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="20"/>
       <c r="B15" s="24" t="s">
         <v>1</v>
@@ -2040,21 +2098,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8D0706-7E93-4380-BA00-BCF4DC19007E}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="5" width="2.85546875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="8" customWidth="1"/>
-    <col min="8" max="11" width="18.42578125" style="10" customWidth="1"/>
+    <col min="1" max="5" width="2.86328125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="18.3984375" style="8" customWidth="1"/>
+    <col min="8" max="11" width="18.3984375" style="10" customWidth="1"/>
     <col min="12" max="32" width="9" style="10" customWidth="1"/>
     <col min="33" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2063,7 +2121,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -2078,7 +2136,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
@@ -2093,7 +2151,7 @@
       <c r="J3" s="52"/>
       <c r="K3" s="53"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
@@ -2108,7 +2166,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="33" t="s">
         <v>35</v>
       </c>
@@ -2123,7 +2181,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="19"/>
       <c r="B6" s="24" t="s">
         <v>1</v>
@@ -2138,7 +2196,7 @@
       <c r="J6" s="52"/>
       <c r="K6" s="53"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="19"/>
       <c r="B7" s="23" t="s">
         <v>75</v>
@@ -2153,7 +2211,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="53"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="24" t="s">
         <v>122</v>
       </c>
@@ -2168,7 +2226,7 @@
       <c r="J8" s="52"/>
       <c r="K8" s="53"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="24" t="s">
         <v>123</v>
       </c>
@@ -2183,7 +2241,7 @@
       <c r="J9" s="52"/>
       <c r="K9" s="53"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="24" t="s">
         <v>124</v>
       </c>
@@ -2198,7 +2256,7 @@
       <c r="J10" s="52"/>
       <c r="K10" s="53"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="24" t="s">
         <v>48</v>
       </c>
@@ -2213,7 +2271,7 @@
       <c r="J11" s="52"/>
       <c r="K11" s="53"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="33" t="s">
         <v>125</v>
       </c>
@@ -2228,7 +2286,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="19"/>
       <c r="B13" s="24" t="s">
         <v>126</v>
@@ -2243,7 +2301,7 @@
       <c r="J13" s="52"/>
       <c r="K13" s="53"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="19"/>
       <c r="B14" s="24" t="s">
         <v>127</v>
@@ -2258,7 +2316,7 @@
       <c r="J14" s="52"/>
       <c r="K14" s="53"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="19"/>
       <c r="B15" s="24" t="s">
         <v>128</v>
@@ -2273,7 +2331,7 @@
       <c r="J15" s="52"/>
       <c r="K15" s="53"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="19"/>
       <c r="B16" s="24" t="s">
         <v>129</v>
@@ -2288,7 +2346,7 @@
       <c r="J16" s="52"/>
       <c r="K16" s="53"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="19"/>
       <c r="B17" s="24" t="s">
         <v>130</v>
@@ -2303,7 +2361,7 @@
       <c r="J17" s="52"/>
       <c r="K17" s="53"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="19"/>
       <c r="B18" s="24" t="s">
         <v>131</v>
@@ -2318,7 +2376,7 @@
       <c r="J18" s="52"/>
       <c r="K18" s="53"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="19"/>
       <c r="B19" s="24" t="s">
         <v>132</v>
@@ -2333,7 +2391,7 @@
       <c r="J19" s="52"/>
       <c r="K19" s="53"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="19"/>
       <c r="B20" s="23" t="s">
         <v>133</v>
@@ -2348,7 +2406,7 @@
       <c r="J20" s="52"/>
       <c r="K20" s="53"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="24" t="s">
         <v>134</v>
       </c>
@@ -2363,7 +2421,7 @@
       <c r="J21" s="52"/>
       <c r="K21" s="53"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="33" t="s">
         <v>135</v>
       </c>
@@ -2378,7 +2436,7 @@
       <c r="J22" s="5"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="19"/>
       <c r="B23" s="24" t="s">
         <v>126</v>
@@ -2393,7 +2451,7 @@
       <c r="J23" s="52"/>
       <c r="K23" s="53"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="19"/>
       <c r="B24" s="24" t="s">
         <v>127</v>
@@ -2408,7 +2466,7 @@
       <c r="J24" s="52"/>
       <c r="K24" s="53"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="19"/>
       <c r="B25" s="24" t="s">
         <v>128</v>
@@ -2423,7 +2481,7 @@
       <c r="J25" s="52"/>
       <c r="K25" s="53"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="19"/>
       <c r="B26" s="24" t="s">
         <v>129</v>
@@ -2438,7 +2496,7 @@
       <c r="J26" s="52"/>
       <c r="K26" s="53"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="19"/>
       <c r="B27" s="23" t="s">
         <v>130</v>
@@ -2453,7 +2511,7 @@
       <c r="J27" s="52"/>
       <c r="K27" s="53"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="19"/>
       <c r="B28" s="24" t="s">
         <v>131</v>
@@ -2468,7 +2526,7 @@
       <c r="J28" s="52"/>
       <c r="K28" s="53"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="19"/>
       <c r="B29" s="24" t="s">
         <v>132</v>
@@ -2483,7 +2541,7 @@
       <c r="J29" s="52"/>
       <c r="K29" s="53"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="19"/>
       <c r="B30" s="33" t="s">
         <v>133</v>
@@ -2498,7 +2556,7 @@
       <c r="J30" s="52"/>
       <c r="K30" s="53"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="24" t="s">
         <v>136</v>
       </c>
@@ -2513,7 +2571,7 @@
       <c r="J31" s="52"/>
       <c r="K31" s="53"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="24" t="s">
         <v>137</v>
       </c>
@@ -2528,7 +2586,7 @@
       <c r="J32" s="52"/>
       <c r="K32" s="53"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="33" t="s">
         <v>138</v>
       </c>
@@ -2543,7 +2601,7 @@
       <c r="J33" s="5"/>
       <c r="K33" s="15"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="19"/>
       <c r="B34" s="24" t="s">
         <v>139</v>
@@ -2558,7 +2616,7 @@
       <c r="J34" s="52"/>
       <c r="K34" s="53"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="19"/>
       <c r="B35" s="33" t="s">
         <v>140</v>
@@ -2573,7 +2631,7 @@
       <c r="J35" s="52"/>
       <c r="K35" s="53"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="23" t="s">
         <v>141</v>
       </c>
@@ -2588,7 +2646,7 @@
       <c r="J36" s="5"/>
       <c r="K36" s="15"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="19"/>
       <c r="B37" s="23" t="s">
         <v>142</v>
@@ -2603,7 +2661,7 @@
       <c r="J37" s="52"/>
       <c r="K37" s="53"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="19"/>
       <c r="B38" s="24" t="s">
         <v>143</v>
@@ -2618,7 +2676,7 @@
       <c r="J38" s="52"/>
       <c r="K38" s="53"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="19"/>
       <c r="B39" s="23" t="s">
         <v>144</v>
@@ -2637,7 +2695,7 @@
       <c r="J39" s="56"/>
       <c r="K39" s="57"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="19"/>
       <c r="B40" s="24" t="s">
         <v>145</v>
@@ -2656,7 +2714,7 @@
       <c r="J40" s="14"/>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="19"/>
       <c r="B41" s="24" t="s">
         <v>146</v>
@@ -2671,7 +2729,7 @@
       <c r="J41" s="52"/>
       <c r="K41" s="53"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="24" t="s">
         <v>147</v>
       </c>
@@ -2686,7 +2744,7 @@
       <c r="J42" s="52"/>
       <c r="K42" s="53"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="24" t="s">
         <v>148</v>
       </c>
@@ -2701,7 +2759,7 @@
       <c r="J43" s="52"/>
       <c r="K43" s="53"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="24" t="s">
         <v>149</v>
       </c>
@@ -2716,7 +2774,7 @@
       <c r="J44" s="52"/>
       <c r="K44" s="53"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="31" t="s">
         <v>150</v>
       </c>
@@ -2746,17 +2804,17 @@
       <selection activeCell="G5" sqref="G5:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="5" width="2.85546875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="8" customWidth="1"/>
-    <col min="8" max="11" width="18.42578125" style="10" customWidth="1"/>
+    <col min="1" max="5" width="2.86328125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="18.3984375" style="8" customWidth="1"/>
+    <col min="8" max="11" width="18.3984375" style="10" customWidth="1"/>
     <col min="12" max="32" width="9" style="10" customWidth="1"/>
     <col min="33" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2765,7 +2823,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="19"/>
       <c r="B2" s="23" t="s">
         <v>144</v>
@@ -2784,7 +2842,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="19"/>
       <c r="B3" s="33"/>
       <c r="C3" s="5"/>
@@ -2797,7 +2855,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="19"/>
       <c r="B5" s="23" t="s">
         <v>144</v>
@@ -2816,7 +2874,7 @@
       <c r="J5" s="14"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="19"/>
       <c r="B6" s="33"/>
       <c r="C6" s="5"/>
@@ -2836,6 +2894,248 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C204AD-30B3-4F25-B375-EEAFE0F59304}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="5" width="2.86328125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="70.265625" style="8" customWidth="1"/>
+    <col min="8" max="32" width="9" style="10" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="19"/>
+      <c r="B6" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="68"/>
+      <c r="B7" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="19"/>
+      <c r="B9" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="19"/>
+      <c r="B10" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="25"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="19"/>
+      <c r="B11" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="25"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="19"/>
+      <c r="B12" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="19"/>
+      <c r="B13" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="19"/>
+      <c r="B14" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="19"/>
+      <c r="B19" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="20"/>
+      <c r="B20" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="25"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEC284B-3AE1-4B55-8A1E-A66D2EB866A3}">
   <dimension ref="A1:G60"/>
@@ -2844,16 +3144,16 @@
       <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="5" width="2.85546875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="70.28515625" style="8" customWidth="1"/>
-    <col min="8" max="15" width="9.140625" style="10" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="5" width="2.86328125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="70.265625" style="8" customWidth="1"/>
+    <col min="8" max="15" width="9.1328125" style="10" customWidth="1"/>
+    <col min="16" max="16384" width="9.1328125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2862,7 +3162,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -2873,7 +3173,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
@@ -2884,7 +3184,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
@@ -2895,7 +3195,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
@@ -2906,7 +3206,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
@@ -2917,7 +3217,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>5</v>
@@ -2928,7 +3228,7 @@
       <c r="F7" s="17"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="13" t="s">
@@ -2939,7 +3239,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="13" t="s">
@@ -2950,7 +3250,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
@@ -2961,7 +3261,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="20"/>
       <c r="B11" s="13" t="s">
         <v>9</v>
@@ -2972,7 +3272,7 @@
       <c r="F11" s="14"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="23" t="s">
         <v>10</v>
       </c>
@@ -2983,7 +3283,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="19"/>
       <c r="B13" s="23" t="s">
         <v>11</v>
@@ -2994,7 +3294,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="23"/>
@@ -3003,7 +3303,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -3014,7 +3314,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -3025,7 +3325,7 @@
       <c r="F16" s="14"/>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="16" t="s">
         <v>14</v>
       </c>
@@ -3036,7 +3336,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="19"/>
       <c r="B18" s="13" t="s">
         <v>15</v>
@@ -3047,7 +3347,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="25"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="19"/>
       <c r="B19" s="13" t="s">
         <v>16</v>
@@ -3058,7 +3358,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="27"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="19"/>
       <c r="B20" s="13" t="s">
         <v>17</v>
@@ -3069,7 +3369,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="25"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="19"/>
       <c r="B21" s="19" t="s">
         <v>18</v>
@@ -3080,7 +3380,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="28"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="13" t="s">
@@ -3091,7 +3391,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="25"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="13" t="s">
@@ -3102,7 +3402,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="13" t="s">
@@ -3113,7 +3413,7 @@
       <c r="F24" s="15"/>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
       <c r="C25" s="13" t="s">
@@ -3124,7 +3424,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="25"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
       <c r="C26" s="16" t="s">
@@ -3135,7 +3435,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="28"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -3146,7 +3446,7 @@
       <c r="F27" s="15"/>
       <c r="G27" s="25"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="19"/>
       <c r="B28" s="19"/>
       <c r="C28" s="20"/>
@@ -3157,7 +3457,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="25"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="19"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19" t="s">
@@ -3168,7 +3468,7 @@
       <c r="F29" s="26"/>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="19"/>
       <c r="B30" s="13" t="s">
         <v>27</v>
@@ -3179,7 +3479,7 @@
       <c r="F30" s="15"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="20"/>
       <c r="B31" s="13" t="s">
         <v>28</v>
@@ -3190,7 +3490,7 @@
       <c r="F31" s="15"/>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="11" t="s">
         <v>29</v>
       </c>
@@ -3201,7 +3501,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
         <v>30</v>
       </c>
@@ -3212,7 +3512,7 @@
       <c r="F33" s="15"/>
       <c r="G33" s="25"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="16" t="s">
         <v>31</v>
       </c>
@@ -3223,7 +3523,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="18"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="19"/>
       <c r="B35" s="16" t="s">
         <v>32</v>
@@ -3234,7 +3534,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="18"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="13" t="s">
@@ -3245,7 +3545,7 @@
       <c r="F36" s="14"/>
       <c r="G36" s="25"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="19"/>
       <c r="B37" s="19"/>
       <c r="C37" s="13" t="s">
@@ -3256,7 +3556,7 @@
       <c r="F37" s="14"/>
       <c r="G37" s="25"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="19"/>
       <c r="B38" s="19"/>
       <c r="C38" s="13" t="s">
@@ -3267,7 +3567,7 @@
       <c r="F38" s="14"/>
       <c r="G38" s="25"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="19"/>
       <c r="B39" s="19"/>
       <c r="C39" s="13" t="s">
@@ -3278,7 +3578,7 @@
       <c r="F39" s="14"/>
       <c r="G39" s="25"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="19"/>
       <c r="B40" s="19"/>
       <c r="C40" s="13" t="s">
@@ -3289,7 +3589,7 @@
       <c r="F40" s="14"/>
       <c r="G40" s="25"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="19"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13" t="s">
@@ -3300,7 +3600,7 @@
       <c r="F41" s="14"/>
       <c r="G41" s="25"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="19"/>
       <c r="B42" s="16" t="s">
         <v>38</v>
@@ -3311,7 +3611,7 @@
       <c r="F42" s="17"/>
       <c r="G42" s="18"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="19"/>
       <c r="B43" s="19"/>
       <c r="C43" s="13" t="s">
@@ -3322,7 +3622,7 @@
       <c r="F43" s="14"/>
       <c r="G43" s="25"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="19"/>
       <c r="B44" s="19"/>
       <c r="C44" s="13" t="s">
@@ -3333,7 +3633,7 @@
       <c r="F44" s="14"/>
       <c r="G44" s="25"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="19"/>
       <c r="B45" s="19"/>
       <c r="C45" s="13" t="s">
@@ -3344,7 +3644,7 @@
       <c r="F45" s="14"/>
       <c r="G45" s="25"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="19"/>
       <c r="B46" s="19"/>
       <c r="C46" s="13" t="s">
@@ -3355,7 +3655,7 @@
       <c r="F46" s="14"/>
       <c r="G46" s="25"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
       <c r="C47" s="13" t="s">
@@ -3366,7 +3666,7 @@
       <c r="F47" s="14"/>
       <c r="G47" s="25"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="13" t="s">
@@ -3377,7 +3677,7 @@
       <c r="F48" s="14"/>
       <c r="G48" s="25"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19" t="s">
@@ -3388,7 +3688,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="28"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -3399,7 +3699,7 @@
       <c r="F50" s="15"/>
       <c r="G50" s="25"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="19"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
@@ -3410,7 +3710,7 @@
       <c r="F51" s="15"/>
       <c r="G51" s="25"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="19"/>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
@@ -3421,7 +3721,7 @@
       <c r="F52" s="15"/>
       <c r="G52" s="25"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="20"/>
       <c r="B53" s="13" t="s">
         <v>47</v>
@@ -3432,7 +3732,7 @@
       <c r="F53" s="14"/>
       <c r="G53" s="29"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="13" t="s">
         <v>48</v>
       </c>
@@ -3443,7 +3743,7 @@
       <c r="F54" s="15"/>
       <c r="G54" s="25"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="13" t="s">
         <v>49</v>
       </c>
@@ -3454,7 +3754,7 @@
       <c r="F55" s="15"/>
       <c r="G55" s="25"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="13" t="s">
         <v>50</v>
       </c>
@@ -3465,7 +3765,7 @@
       <c r="F56" s="15"/>
       <c r="G56" s="25"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="13" t="s">
         <v>51</v>
       </c>
@@ -3476,7 +3776,7 @@
       <c r="F57" s="15"/>
       <c r="G57" s="25"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="13" t="s">
         <v>52</v>
       </c>
@@ -3487,7 +3787,7 @@
       <c r="F58" s="15"/>
       <c r="G58" s="25"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="13" t="s">
         <v>53</v>
       </c>
@@ -3498,7 +3798,7 @@
       <c r="F59" s="15"/>
       <c r="G59" s="25"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="13" t="s">
         <v>54</v>
       </c>
@@ -3525,14 +3825,14 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="5" width="3" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" style="1" customWidth="1"/>
     <col min="7" max="7" width="3" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5"/>
       <c r="B1" s="35"/>
       <c r="C1" s="5"/>
@@ -3541,7 +3841,7 @@
       <c r="F1" s="17"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
       <c r="B2" s="35"/>
       <c r="C2" s="5"/>
@@ -3552,7 +3852,7 @@
       <c r="F2" s="17"/>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
       <c r="B3" s="35"/>
       <c r="C3" s="5"/>
@@ -3563,7 +3863,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="25"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5"/>
       <c r="B4" s="35"/>
       <c r="C4" s="5"/>
@@ -3574,7 +3874,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="34"/>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
       <c r="B5" s="35"/>
       <c r="C5" s="5"/>
@@ -3585,7 +3885,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="25"/>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
       <c r="B6" s="35"/>
       <c r="C6" s="5"/>
@@ -3596,7 +3896,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="34"/>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
       <c r="B7" s="35"/>
       <c r="C7" s="5"/>
@@ -3607,7 +3907,7 @@
       <c r="F7" s="17"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
       <c r="B8" s="35"/>
       <c r="C8" s="5"/>
@@ -3618,7 +3918,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="25"/>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
       <c r="B9" s="35"/>
       <c r="C9" s="5"/>
@@ -3629,7 +3929,7 @@
       <c r="F9" s="21"/>
       <c r="G9" s="30"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
       <c r="B10" s="35"/>
       <c r="C10" s="5"/>
@@ -3640,7 +3940,7 @@
       <c r="F10" s="14"/>
       <c r="G10" s="25"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
       <c r="B11" s="35"/>
       <c r="C11" s="36"/>
@@ -3666,16 +3966,16 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="5" width="2.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="70.28515625" style="8" customWidth="1"/>
+    <col min="1" max="5" width="2.86328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="70.265625" style="8" customWidth="1"/>
     <col min="8" max="32" width="9" style="4" customWidth="1"/>
     <col min="33" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -3684,7 +3984,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -3695,7 +3995,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -3706,7 +4006,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
@@ -3717,7 +4017,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="33" t="s">
         <v>58</v>
       </c>
@@ -3728,7 +4028,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="28"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="19"/>
       <c r="B6" s="23" t="s">
         <v>59</v>
@@ -3739,7 +4039,7 @@
       <c r="F6" s="38"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="23" t="s">
         <v>60</v>
       </c>
@@ -3750,7 +4050,7 @@
       <c r="F7" s="38"/>
       <c r="G7" s="28"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="20"/>
       <c r="B8" s="24" t="s">
         <v>61</v>
@@ -3761,7 +4061,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="37"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="33" t="s">
         <v>62</v>
       </c>
@@ -3772,7 +4072,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="28"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="24" t="s">
         <v>63</v>
       </c>
@@ -3783,7 +4083,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="24" t="s">
         <v>151</v>
       </c>
@@ -3794,7 +4094,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="31" t="s">
         <v>152</v>
       </c>
@@ -3820,16 +4120,16 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="5" width="2.85546875" style="4" customWidth="1"/>
+    <col min="1" max="5" width="2.86328125" style="4" customWidth="1"/>
     <col min="6" max="6" width="21" style="4" customWidth="1"/>
-    <col min="7" max="7" width="70.28515625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="70.265625" style="8" customWidth="1"/>
     <col min="8" max="32" width="9" style="4" customWidth="1"/>
     <col min="33" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="35"/>
       <c r="B1" s="23"/>
       <c r="C1" s="17"/>
@@ -3839,7 +4139,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="42"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="35"/>
       <c r="B2" s="5"/>
       <c r="C2" s="24" t="s">
@@ -3850,7 +4150,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="40"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="35"/>
       <c r="B3" s="5"/>
       <c r="C3" s="24" t="s">
@@ -3861,7 +4161,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="25"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="35"/>
       <c r="B4" s="5"/>
       <c r="C4" s="23" t="s">
@@ -3872,7 +4172,7 @@
       <c r="F4" s="38"/>
       <c r="G4" s="27"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="35"/>
       <c r="B5" s="5"/>
       <c r="C5" s="23" t="s">
@@ -3883,7 +4183,7 @@
       <c r="F5" s="17"/>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="35"/>
       <c r="B6" s="5"/>
       <c r="C6" s="20"/>
@@ -3894,7 +4194,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="25"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="35"/>
       <c r="B7" s="5"/>
       <c r="C7" s="33" t="s">
@@ -3905,7 +4205,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="28"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="35"/>
       <c r="B8" s="5"/>
       <c r="C8" s="19"/>
@@ -3916,7 +4216,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="25"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="35"/>
       <c r="B9" s="5"/>
       <c r="C9" s="19"/>
@@ -3927,7 +4227,7 @@
       <c r="F9" s="38"/>
       <c r="G9" s="25"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="35"/>
       <c r="B10" s="5"/>
       <c r="C10" s="23" t="s">
@@ -3938,7 +4238,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="35"/>
       <c r="B11" s="5"/>
       <c r="C11" s="20"/>
@@ -3949,7 +4249,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="25"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="35"/>
       <c r="B12" s="5"/>
       <c r="C12" s="24" t="s">
@@ -3960,7 +4260,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="25"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="35"/>
       <c r="B13" s="5"/>
       <c r="C13" s="24" t="s">
@@ -3971,7 +4271,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="35"/>
       <c r="B14" s="5"/>
       <c r="C14" s="33" t="s">
@@ -3982,7 +4282,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="35"/>
       <c r="B15" s="5"/>
       <c r="C15" s="24" t="s">
@@ -4008,16 +4308,16 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="5" width="2.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="70.28515625" style="8" customWidth="1"/>
+    <col min="1" max="5" width="2.86328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="70.265625" style="8" customWidth="1"/>
     <col min="8" max="32" width="9" style="4" customWidth="1"/>
     <col min="33" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -4026,7 +4326,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -4037,7 +4337,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
@@ -4048,7 +4348,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="45"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
@@ -4059,7 +4359,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="23" t="s">
         <v>74</v>
       </c>
@@ -4070,7 +4370,7 @@
       <c r="F5" s="38"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="23" t="s">
         <v>35</v>
       </c>
@@ -4081,7 +4381,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="19"/>
       <c r="B7" s="24" t="s">
         <v>1</v>
@@ -4092,7 +4392,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="25"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="20"/>
       <c r="B8" s="24" t="s">
         <v>75</v>
@@ -4103,7 +4403,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="43"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="23" t="s">
         <v>76</v>
       </c>
@@ -4114,7 +4414,7 @@
       <c r="F9" s="38"/>
       <c r="G9" s="45"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="23" t="s">
         <v>77</v>
       </c>
@@ -4125,7 +4425,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="19"/>
       <c r="B11" s="23" t="s">
         <v>43</v>
@@ -4136,7 +4436,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="25"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="19"/>
       <c r="B12" s="24" t="s">
         <v>78</v>
@@ -4147,7 +4447,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="25"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="19"/>
       <c r="B13" s="24" t="s">
         <v>32</v>
@@ -4158,7 +4458,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="25"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="20"/>
       <c r="B14" s="31" t="s">
         <v>79</v>
@@ -4169,7 +4469,7 @@
       <c r="F14" s="21"/>
       <c r="G14" s="25"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="24" t="s">
         <v>80</v>
       </c>
@@ -4180,7 +4480,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="24" t="s">
         <v>81</v>
       </c>
@@ -4191,7 +4491,7 @@
       <c r="F16" s="14"/>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="23" t="s">
         <v>82</v>
       </c>
@@ -4202,7 +4502,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="19"/>
       <c r="B18" s="24" t="s">
         <v>83</v>
@@ -4213,7 +4513,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="25"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="20"/>
       <c r="B19" s="24" t="s">
         <v>84</v>
@@ -4224,7 +4524,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="25"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="24" t="s">
         <v>85</v>
       </c>
@@ -4235,7 +4535,7 @@
       <c r="F20" s="14"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
         <v>86</v>
       </c>
@@ -4246,7 +4546,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="24" t="s">
         <v>75</v>
       </c>
@@ -4257,7 +4557,7 @@
       <c r="F22" s="14"/>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="24" t="s">
         <v>87</v>
       </c>
@@ -4268,7 +4568,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="47"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -4277,7 +4577,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="62"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -4300,16 +4600,16 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="5" width="2.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="70.28515625" style="8" customWidth="1"/>
+    <col min="1" max="5" width="2.86328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="70.265625" style="8" customWidth="1"/>
     <col min="8" max="32" width="9" style="4" customWidth="1"/>
     <col min="33" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -4318,7 +4618,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -4329,7 +4629,7 @@
       <c r="F2" s="17"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
@@ -4340,7 +4640,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
@@ -4351,7 +4651,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="24" t="s">
         <v>88</v>
       </c>
@@ -4362,7 +4662,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="23" t="s">
         <v>89</v>
       </c>
@@ -4373,7 +4673,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="19"/>
       <c r="B7" s="23"/>
       <c r="C7" s="17"/>
@@ -4382,7 +4682,7 @@
       <c r="F7" s="17"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="24" t="s">
@@ -4393,7 +4693,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="24" t="s">
@@ -4404,7 +4704,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="24" t="s">
@@ -4415,7 +4715,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="23" t="s">
@@ -4426,7 +4726,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="31"/>
@@ -4437,7 +4737,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="37"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="16" t="s">
@@ -4448,7 +4748,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="28"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="20"/>
@@ -4459,7 +4759,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="37"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="13" t="s">
@@ -4470,7 +4770,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="13" t="s">
@@ -4481,7 +4781,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="45"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="13" t="s">
@@ -4492,7 +4792,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="13" t="s">
@@ -4503,7 +4803,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="45"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13" t="s">
@@ -4514,7 +4814,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="23" t="s">
         <v>98</v>
       </c>
@@ -4525,7 +4825,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="19"/>
       <c r="B21" s="24" t="s">
         <v>61</v>
@@ -4536,7 +4836,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="25"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="20"/>
       <c r="B22" s="24" t="s">
         <v>99</v>
@@ -4547,7 +4847,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="25"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="31" t="s">
         <v>100</v>
       </c>
@@ -4558,7 +4858,7 @@
       <c r="F23" s="21"/>
       <c r="G23" s="49"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="33" t="s">
         <v>101</v>
       </c>
@@ -4569,7 +4869,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="50"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="23" t="s">
         <v>66</v>
       </c>
@@ -4580,7 +4880,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="20"/>
       <c r="B26" s="24" t="s">
         <v>13</v>
@@ -4591,7 +4891,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="25"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="24" t="s">
         <v>12</v>
       </c>
@@ -4602,7 +4902,7 @@
       <c r="F27" s="15"/>
       <c r="G27" s="49"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="31" t="s">
         <v>102</v>
       </c>
@@ -4628,17 +4928,17 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="5" width="2.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="8" customWidth="1"/>
-    <col min="8" max="16" width="18.42578125" style="4" customWidth="1"/>
+    <col min="1" max="5" width="2.86328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.3984375" style="8" customWidth="1"/>
+    <col min="8" max="16" width="18.3984375" style="4" customWidth="1"/>
     <col min="17" max="33" width="9" style="4" customWidth="1"/>
     <col min="34" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -4647,7 +4947,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -4662,7 +4962,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
@@ -4677,7 +4977,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
@@ -4692,7 +4992,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="33" t="s">
         <v>103</v>
       </c>
@@ -4712,7 +5012,7 @@
       <c r="O5" s="14"/>
       <c r="P5" s="15"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="24" t="s">
         <v>104</v>
       </c>
@@ -4754,7 +5054,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="23" t="s">
         <v>11</v>
       </c>
@@ -4769,7 +5069,7 @@
       <c r="J7" s="14"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="23" t="s">
         <v>62</v>
       </c>
@@ -4784,7 +5084,7 @@
       <c r="J8" s="14"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" s="10"/>
     </row>
   </sheetData>
@@ -4802,17 +5102,17 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="5" width="2.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="8" customWidth="1"/>
-    <col min="8" max="14" width="15.85546875" style="4" customWidth="1"/>
+    <col min="1" max="5" width="2.86328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.86328125" style="8" customWidth="1"/>
+    <col min="8" max="14" width="15.86328125" style="4" customWidth="1"/>
     <col min="15" max="32" width="9" style="4" customWidth="1"/>
     <col min="33" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="35"/>
       <c r="B1" s="23"/>
       <c r="C1" s="14"/>
@@ -4825,7 +5125,7 @@
       <c r="J1" s="14"/>
       <c r="K1" s="15"/>
     </row>
-    <row r="2" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="31" t="s">

--- a/azReportTemplate.xlsx
+++ b/azReportTemplate.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1180" documentId="13_ncr:1_{6F514D47-0C22-46E0-8930-DFE03F6E5842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{C7C59CB7-ED83-4364-B9E5-3797F73BCC5D}"/>
+  <xr:revisionPtr revIDLastSave="1218" documentId="13_ncr:1_{6F514D47-0C22-46E0-8930-DFE03F6E5842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{8A4AAC7F-BAB6-40F6-9DB9-CC1346073E24}"/>
   <bookViews>
-    <workbookView xWindow="2213" yWindow="2152" windowWidth="11985" windowHeight="9586" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VirtualMachine_windows" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="178">
   <si>
     <t>ResourceGroupName</t>
   </si>
@@ -567,6 +567,27 @@
   <si>
     <t>PrivateEndpointStateForSiteRecovery</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ssh</t>
+  </si>
+  <si>
+    <t>PublicKeys</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>KeyData</t>
+  </si>
+  <si>
+    <t>LinuxConfiguration</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>DisablePasswordAuthentication</t>
+    <phoneticPr fontId="0"/>
   </si>
 </sst>
 </file>
@@ -846,7 +867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -916,6 +937,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2898,8 +2921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C204AD-30B3-4F25-B375-EEAFE0F59304}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:D20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3138,10 +3161,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEC284B-3AE1-4B55-8A1E-A66D2EB866A3}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3371,8 +3394,8 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="19"/>
-      <c r="B21" s="19" t="s">
-        <v>18</v>
+      <c r="B21" s="33" t="s">
+        <v>176</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -3383,8 +3406,8 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
-      <c r="C22" s="13" t="s">
-        <v>19</v>
+      <c r="C22" s="24" t="s">
+        <v>177</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -3394,65 +3417,63 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
-      <c r="C23" s="13" t="s">
-        <v>20</v>
+      <c r="C23" s="16" t="s">
+        <v>172</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="25"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="29"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
-      <c r="C24" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="14"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="69" t="s">
+        <v>173</v>
+      </c>
       <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="25"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="29"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
-      <c r="C25" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="25"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="28"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
-      <c r="C26" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="28"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
-      <c r="D27" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="G27" s="25"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="19"/>
       <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="13" t="s">
-        <v>25</v>
-      </c>
+      <c r="C28" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="15"/>
       <c r="G28" s="25"/>
@@ -3460,29 +3481,29 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="19"/>
       <c r="B29" s="19"/>
-      <c r="C29" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="25"/>
+      <c r="C29" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="28"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="19"/>
-      <c r="B30" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="E30" s="14"/>
       <c r="F30" s="15"/>
       <c r="G30" s="25"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="20"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -3491,43 +3512,43 @@
       <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="20"/>
+      <c r="B32" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="25"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="25"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="13" t="s">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="25"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="25"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="16" t="s">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="25"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="18"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="19"/>
-      <c r="B35" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
@@ -3536,20 +3557,20 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="25"/>
+      <c r="B36" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="19"/>
       <c r="B37" s="19"/>
       <c r="C37" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
@@ -3560,7 +3581,7 @@
       <c r="A38" s="19"/>
       <c r="B38" s="19"/>
       <c r="C38" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
@@ -3571,7 +3592,7 @@
       <c r="A39" s="19"/>
       <c r="B39" s="19"/>
       <c r="C39" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
@@ -3582,7 +3603,7 @@
       <c r="A40" s="19"/>
       <c r="B40" s="19"/>
       <c r="C40" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
@@ -3591,9 +3612,9 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="13" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
@@ -3602,31 +3623,31 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="19"/>
-      <c r="B42" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="18"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="25"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="25"/>
+      <c r="B43" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="18"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="19"/>
       <c r="B44" s="19"/>
       <c r="C44" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
@@ -3637,7 +3658,7 @@
       <c r="A45" s="19"/>
       <c r="B45" s="19"/>
       <c r="C45" s="13" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
@@ -3648,7 +3669,7 @@
       <c r="A46" s="19"/>
       <c r="B46" s="19"/>
       <c r="C46" s="13" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
@@ -3659,7 +3680,7 @@
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
       <c r="C47" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
@@ -3670,7 +3691,7 @@
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
@@ -3680,31 +3701,31 @@
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
-      <c r="C49" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="28"/>
+      <c r="C49" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="25"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="25"/>
+      <c r="C50" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="28"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="19"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
       <c r="D51" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="15"/>
@@ -3712,40 +3733,40 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="19"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="24" t="s">
-        <v>13</v>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="E52" s="14"/>
       <c r="F52" s="15"/>
       <c r="G52" s="25"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="20"/>
-      <c r="B53" s="13" t="s">
+      <c r="A53" s="19"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="14"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="25"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54" s="20"/>
+      <c r="B54" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="29"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B54" s="14"/>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="25"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="29"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -3756,7 +3777,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -3767,7 +3788,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -3778,7 +3799,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -3789,7 +3810,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -3800,7 +3821,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -3809,10 +3830,21 @@
       <c r="F60" s="15"/>
       <c r="G60" s="25"/>
     </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A61" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="25"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/azReportTemplate.xlsx
+++ b/azReportTemplate.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1218" documentId="13_ncr:1_{6F514D47-0C22-46E0-8930-DFE03F6E5842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{8A4AAC7F-BAB6-40F6-9DB9-CC1346073E24}"/>
+  <xr:revisionPtr revIDLastSave="1244" documentId="13_ncr:1_{6F514D47-0C22-46E0-8930-DFE03F6E5842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{73C5505B-D6CA-4CBC-9AC2-715765F0D75F}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VirtualMachine_windows" sheetId="9" r:id="rId1"/>
@@ -867,7 +867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -927,8 +927,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -939,6 +937,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2081,7 +2088,7 @@
       <c r="A13" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="61"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -2122,7 +2129,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2198,7 +2205,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="63"/>
+      <c r="G5" s="61"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -2303,7 +2310,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="63"/>
+      <c r="G12" s="61"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -2318,11 +2325,11 @@
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="71"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="19"/>
@@ -2333,11 +2340,11 @@
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="53"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="71"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="19"/>
@@ -2348,11 +2355,11 @@
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="71"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="19"/>
@@ -2363,11 +2370,11 @@
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="53"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="71"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="19"/>
@@ -2378,11 +2385,11 @@
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="53"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="71"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="19"/>
@@ -2393,11 +2400,11 @@
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="53"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="71"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="19"/>
@@ -2408,11 +2415,11 @@
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="53"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="71"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="19"/>
@@ -2423,11 +2430,11 @@
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="53"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="71"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="24" t="s">
@@ -2453,7 +2460,7 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="63"/>
+      <c r="G22" s="61"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -2468,11 +2475,11 @@
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="53"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="71"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="19"/>
@@ -2483,11 +2490,11 @@
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="53"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="71"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="19"/>
@@ -2498,11 +2505,11 @@
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="53"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="71"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="19"/>
@@ -2513,11 +2520,11 @@
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="53"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="71"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="19"/>
@@ -2528,11 +2535,11 @@
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="53"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="71"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="19"/>
@@ -2543,11 +2550,11 @@
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="53"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="71"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="19"/>
@@ -2558,11 +2565,11 @@
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="53"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="71"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="19"/>
@@ -2573,11 +2580,11 @@
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="53"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="71"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="24" t="s">
@@ -2618,7 +2625,7 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="63"/>
+      <c r="G33" s="61"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -2663,7 +2670,7 @@
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
-      <c r="G36" s="63"/>
+      <c r="G36" s="61"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -2714,7 +2721,7 @@
       <c r="H39" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="I39" s="64"/>
+      <c r="I39" s="62"/>
       <c r="J39" s="56"/>
       <c r="K39" s="57"/>
     </row>
@@ -2813,6 +2820,24 @@
       <c r="K45" s="53"/>
     </row>
   </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="G18:K18"/>
+  </mergeCells>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2861,7 +2886,7 @@
       <c r="H2" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="I2" s="64"/>
+      <c r="I2" s="62"/>
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
@@ -2872,8 +2897,8 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="66"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="54"/>
@@ -2904,8 +2929,8 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="67"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="65"/>
       <c r="I6" s="52"/>
       <c r="J6" s="52"/>
       <c r="K6" s="53"/>
@@ -2999,7 +3024,7 @@
       <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="68"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="24" t="s">
         <v>171</v>
       </c>
@@ -3163,7 +3188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEC284B-3AE1-4B55-8A1E-A66D2EB866A3}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
@@ -3429,7 +3454,7 @@
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="35"/>
-      <c r="D24" s="69" t="s">
+      <c r="D24" s="67" t="s">
         <v>173</v>
       </c>
       <c r="E24" s="14"/>
@@ -3451,7 +3476,7 @@
       <c r="C26" s="19"/>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
-      <c r="F26" s="70" t="s">
+      <c r="F26" s="68" t="s">
         <v>174</v>
       </c>
       <c r="G26" s="25"/>
@@ -3460,8 +3485,8 @@
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
       <c r="F27" s="5" t="s">
         <v>175</v>
       </c>
@@ -4607,7 +4632,7 @@
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="62"/>
+      <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="10"/>
@@ -5130,8 +5155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BE1B82-836E-45EC-B69B-288B89793565}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5166,13 +5191,16 @@
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
       <c r="F2" s="15"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="53"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="71"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/azReportTemplate.xlsx
+++ b/azReportTemplate.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1244" documentId="13_ncr:1_{6F514D47-0C22-46E0-8930-DFE03F6E5842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{73C5505B-D6CA-4CBC-9AC2-715765F0D75F}"/>
+  <xr:revisionPtr revIDLastSave="1258" documentId="13_ncr:1_{6F514D47-0C22-46E0-8930-DFE03F6E5842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{34A03C44-CA44-4E51-8072-8472F492B8F8}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VirtualMachine_windows" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="179">
   <si>
     <t>ResourceGroupName</t>
   </si>
@@ -587,6 +587,10 @@
   </si>
   <si>
     <t>DisablePasswordAuthentication</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>MaxPrice</t>
     <phoneticPr fontId="0"/>
   </si>
 </sst>
@@ -631,7 +635,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -641,15 +645,6 @@
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -867,7 +862,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -879,71 +874,70 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1261,10 +1255,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1284,651 +1278,662 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="19"/>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="20"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="19"/>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="24" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="24" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="19"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="25"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="19"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="27"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="19"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="25"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="28"/>
+      <c r="G21" s="27"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="13" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="25"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="13" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="25"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="13" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="25"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="13" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="25"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="16" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="28"/>
+      <c r="G26" s="27"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="13" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="25"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="13" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="25"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19" t="s">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="19"/>
-      <c r="B30" s="13" t="s">
+      <c r="A30" s="18"/>
+      <c r="B30" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="25"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="20"/>
-      <c r="B31" s="13" t="s">
+      <c r="A31" s="19"/>
+      <c r="B31" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="25"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="25"/>
+      <c r="A32" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="25"/>
+      <c r="A33" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="17"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="18"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="19"/>
-      <c r="B35" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="18"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="24"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="25"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="24"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="25"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="24"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="25"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="24"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="25"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="24"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="19"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="19"/>
-      <c r="C40" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="25"/>
+      <c r="C40" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="24"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="25"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="17"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="19"/>
-      <c r="B42" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="18"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="24"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="25"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="25"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="25"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="24"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="25"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="24"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="25"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="24"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="25"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="28"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="13"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="24"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" s="19"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="25"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="13"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="24"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" s="19"/>
+      <c r="A51" s="18"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
-      <c r="D51" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="25"/>
+      <c r="D51" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="13"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="24"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52" s="19"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="25"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="28"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="19"/>
-      <c r="B53" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="29"/>
+      <c r="A53" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="24"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="25"/>
+      <c r="A54" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="24"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A55" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="25"/>
+      <c r="A55" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="24"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A56" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="25"/>
+      <c r="A56" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="24"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="25"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="24"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="25"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="24"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="25"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="24"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A60" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="25"/>
+      <c r="A60" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="28"/>
+    </row>
+    <row r="61" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="19"/>
+      <c r="B61" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0"/>
@@ -1964,84 +1969,84 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="32" t="s">
         <v>98</v>
       </c>
       <c r="B9" s="9"/>
@@ -2049,73 +2054,73 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="12"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="19"/>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="25"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="19"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="25"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="19"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="25"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="12"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="20"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="25"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0"/>
@@ -2152,52 +2157,52 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="5"/>
@@ -2205,104 +2210,104 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="61"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="15"/>
+      <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="19"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="53"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="52"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="19"/>
-      <c r="B7" s="23" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="53"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="52"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="53"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="52"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="53"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="52"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="53"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="52"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="52"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="32" t="s">
         <v>125</v>
       </c>
       <c r="B12" s="5"/>
@@ -2310,149 +2315,149 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="61"/>
+      <c r="G12" s="60"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="15"/>
+      <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="19"/>
-      <c r="B13" s="24" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="71"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="70"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="19"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="71"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="70"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="19"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="71"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="70"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="19"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="71"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="70"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="19"/>
-      <c r="B17" s="24" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="71"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="70"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="19"/>
-      <c r="B18" s="24" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="71"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="70"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" s="19"/>
-      <c r="B19" s="24" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="71"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="70"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="19"/>
-      <c r="B20" s="23" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="71"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="70"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="53"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="52"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="32" t="s">
         <v>135</v>
       </c>
       <c r="B22" s="5"/>
@@ -2460,164 +2465,164 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="61"/>
+      <c r="G22" s="60"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="15"/>
+      <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="19"/>
-      <c r="B23" s="24" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="70"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="19"/>
-      <c r="B24" s="24" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="71"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="70"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="19"/>
-      <c r="B25" s="24" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="71"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="70"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="19"/>
-      <c r="B26" s="24" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="71"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="70"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27" s="19"/>
-      <c r="B27" s="23" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="71"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="70"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="19"/>
-      <c r="B28" s="24" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="71"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="70"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="19"/>
-      <c r="B29" s="24" t="s">
+      <c r="A29" s="18"/>
+      <c r="B29" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="71"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="70"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30" s="19"/>
-      <c r="B30" s="33" t="s">
+      <c r="A30" s="18"/>
+      <c r="B30" s="32" t="s">
         <v>133</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="71"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="70"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="53"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="52"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="53"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="52"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="32" t="s">
         <v>138</v>
       </c>
       <c r="B33" s="5"/>
@@ -2625,202 +2630,208 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="61"/>
+      <c r="G33" s="60"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="15"/>
+      <c r="K33" s="14"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A34" s="19"/>
-      <c r="B34" s="24" t="s">
+      <c r="A34" s="18"/>
+      <c r="B34" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="53"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="52"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A35" s="19"/>
-      <c r="B35" s="33" t="s">
+      <c r="A35" s="18"/>
+      <c r="B35" s="32" t="s">
         <v>140</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="53"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="52"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="61"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="60"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
-      <c r="K36" s="15"/>
+      <c r="K36" s="14"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A37" s="19"/>
-      <c r="B37" s="23" t="s">
+      <c r="A37" s="18"/>
+      <c r="B37" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="53"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="52"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A38" s="19"/>
-      <c r="B38" s="24" t="s">
+      <c r="A38" s="18"/>
+      <c r="B38" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="53"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="52"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A39" s="19"/>
-      <c r="B39" s="23" t="s">
+      <c r="A39" s="18"/>
+      <c r="B39" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="58" t="s">
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="H39" s="48" t="s">
+      <c r="H39" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="I39" s="62"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="57"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="56"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A40" s="19"/>
-      <c r="B40" s="24" t="s">
+      <c r="A40" s="18"/>
+      <c r="B40" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="58" t="s">
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="H40" s="24" t="s">
+      <c r="H40" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="15"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="14"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A41" s="19"/>
-      <c r="B41" s="24" t="s">
+      <c r="A41" s="18"/>
+      <c r="B41" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="53"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="52"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="53"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="52"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="53"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="52"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="53"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="52"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="53"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
     <mergeCell ref="G27:K27"/>
     <mergeCell ref="G28:K28"/>
     <mergeCell ref="G29:K29"/>
@@ -2831,12 +2842,6 @@
     <mergeCell ref="G24:K24"/>
     <mergeCell ref="G25:K25"/>
     <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G18:K18"/>
   </mergeCells>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2872,68 +2877,68 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="19"/>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="58" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="19"/>
-      <c r="B3" s="33"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="63"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="54"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="19"/>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="58" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="19"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="53"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="52"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2969,213 +2974,213 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>156</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="19"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="25"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="66"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="65"/>
+      <c r="B7" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="25"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="32" t="s">
         <v>158</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="19"/>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="25"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="19"/>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="25"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="19"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="25"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="19"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="25"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="19"/>
-      <c r="B13" s="24" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="25"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="19"/>
-      <c r="B14" s="33" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="32" t="s">
         <v>164</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="25"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="24" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="25"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="24" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="25"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="24" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="25"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="32" t="s">
         <v>157</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="19"/>
-      <c r="B19" s="24" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="25"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="20"/>
-      <c r="B20" s="24" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="25"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -3186,10 +3191,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEC284B-3AE1-4B55-8A1E-A66D2EB866A3}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3211,660 +3216,671 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="19"/>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="20"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="19"/>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="24" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="24" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="19"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="25"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="19"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="27"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="19"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="25"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="19"/>
-      <c r="B21" s="33" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="28"/>
+      <c r="G21" s="27"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="24" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="25"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="16" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="29"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="28"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="67" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="66" t="s">
         <v>173</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="29"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="28"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="28"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="27"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="68" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="67" t="s">
         <v>174</v>
       </c>
-      <c r="G26" s="25"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
       <c r="F27" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="G27" s="25"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="13" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="25"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="16" t="s">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="28"/>
+      <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="13" t="s">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="25"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="19"/>
-      <c r="B31" s="13" t="s">
+      <c r="A31" s="18"/>
+      <c r="B31" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="25"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="20"/>
-      <c r="B32" s="13" t="s">
+      <c r="A32" s="19"/>
+      <c r="B32" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="25"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="25"/>
+      <c r="A33" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="24"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="25"/>
+      <c r="A34" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="18"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="17"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="19"/>
-      <c r="B36" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="18"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="24"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="25"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="24"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="25"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="24"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="25"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="24"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="25"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="24"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="19"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="19"/>
-      <c r="C41" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="25"/>
+      <c r="C41" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="24"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="19"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="25"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="19"/>
-      <c r="B43" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="18"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="25"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="25"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="24"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="25"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="24"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="25"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="24"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="25"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="24"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="25"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="27"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" s="19"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="28"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="13"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="24"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="25"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="13"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="24"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52" s="19"/>
+      <c r="A52" s="18"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
-      <c r="D52" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="25"/>
+      <c r="D52" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="13"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="24"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="19"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="25"/>
+      <c r="B53" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="28"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" s="20"/>
-      <c r="B54" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
+      <c r="A54" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
       <c r="F54" s="14"/>
-      <c r="G54" s="29"/>
+      <c r="G54" s="24"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A55" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="25"/>
+      <c r="A55" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="24"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A56" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="25"/>
+      <c r="A56" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="24"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A57" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="25"/>
+      <c r="A57" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="24"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="25"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="24"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="25"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="24"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="25"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="24"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A61" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="25"/>
+      <c r="A61" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="17"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A62" s="19"/>
+      <c r="B62" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0"/>
@@ -3891,122 +3907,122 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5"/>
-      <c r="B1" s="35"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="5"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="32"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
-      <c r="B2" s="35"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="32"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
-      <c r="B3" s="35"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="25"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5"/>
-      <c r="B4" s="35"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="32" t="s">
         <v>41</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="34"/>
+      <c r="G4" s="33"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
-      <c r="B5" s="35"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="25"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
-      <c r="B6" s="35"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="32" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="34"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
-      <c r="B7" s="35"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="23" t="s">
+      <c r="D7" s="32"/>
+      <c r="E7" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="32"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
-      <c r="B8" s="35"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="24" t="s">
+      <c r="D8" s="18"/>
+      <c r="E8" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="25"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
-      <c r="B9" s="35"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="31" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="30"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
-      <c r="B10" s="35"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="25"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="24" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="25"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0"/>
@@ -4042,18 +4058,18 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
@@ -4061,21 +4077,21 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="12"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>58</v>
       </c>
       <c r="B5" s="5"/>
@@ -4083,43 +4099,43 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="28"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="19"/>
-      <c r="B6" s="23" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="12"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="28"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="20"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="37"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="36"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="32" t="s">
         <v>62</v>
       </c>
       <c r="B9" s="5"/>
@@ -4127,40 +4143,40 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="28"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="12"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0"/>
@@ -4187,168 +4203,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="35"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="42"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="35"/>
+      <c r="A2" s="34"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="40"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="35"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="25"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="35"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="27"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="35"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="35"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="24" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="25"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="35"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="32" t="s">
         <v>67</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="28"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="35"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="24" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="25"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="35"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="25"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="35"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="35"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="24" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="25"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="35"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="25"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="35"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="35"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="32" t="s">
         <v>72</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="12"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="35"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="41"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0"/>
@@ -4384,255 +4400,255 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="45"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="12"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="19"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="25"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="20"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="43"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="42"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="45"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="44"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="19"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="25"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="19"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="25"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="19"/>
-      <c r="B13" s="24" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="25"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="20"/>
-      <c r="B14" s="31" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="25"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="12"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="19"/>
-      <c r="B18" s="24" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="25"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="20"/>
-      <c r="B19" s="24" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="25"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="12"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="47"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="60"/>
+      <c r="G24" s="59"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="10"/>
@@ -4676,247 +4692,247 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="12"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="19"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="24" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="24" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="24" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="23" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="24" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="37"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="36"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="16" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="28"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="24" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="37"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="36"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="13" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="45"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="44"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="13" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="13" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="45"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="44"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="13" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="19"/>
-      <c r="B21" s="24" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="25"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="20"/>
-      <c r="B22" s="24" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="25"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="49"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="48"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="32" t="s">
         <v>101</v>
       </c>
       <c r="B24" s="5"/>
@@ -4924,51 +4940,51 @@
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="50"/>
+      <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="20"/>
-      <c r="B26" s="24" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="25"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="49"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="48"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="12"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0"/>
@@ -5005,37 +5021,37 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="7"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="54"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5"/>
@@ -5043,103 +5059,103 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="57"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="14"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="48" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="I6" s="48" t="s">
+      <c r="I6" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="J6" s="48" t="s">
+      <c r="J6" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="K6" s="48" t="s">
+      <c r="K6" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="L6" s="48" t="s">
+      <c r="L6" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="M6" s="48" t="s">
+      <c r="M6" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="N6" s="48" t="s">
+      <c r="N6" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="O6" s="48" t="s">
+      <c r="O6" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="P6" s="48" t="s">
+      <c r="P6" s="47" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="15"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" s="10"/>
@@ -5155,7 +5171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BE1B82-836E-45EC-B69B-288B89793565}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -5170,32 +5186,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="35"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="15"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="31" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="71"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/azReportTemplate.xlsx
+++ b/azReportTemplate.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1258" documentId="13_ncr:1_{6F514D47-0C22-46E0-8930-DFE03F6E5842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{34A03C44-CA44-4E51-8072-8472F492B8F8}"/>
+  <xr:revisionPtr revIDLastSave="1263" documentId="13_ncr:1_{6F514D47-0C22-46E0-8930-DFE03F6E5842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{9648C1BD-949E-4CA5-B5B0-3C94705DD3D0}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VirtualMachine_windows" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="180">
   <si>
     <t>ResourceGroupName</t>
   </si>
@@ -591,6 +591,10 @@
   </si>
   <si>
     <t>MaxPrice</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Id</t>
     <phoneticPr fontId="0"/>
   </si>
 </sst>
@@ -2826,12 +2830,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
     <mergeCell ref="G27:K27"/>
     <mergeCell ref="G28:K28"/>
     <mergeCell ref="G29:K29"/>
@@ -2842,6 +2840,12 @@
     <mergeCell ref="G24:K24"/>
     <mergeCell ref="G25:K25"/>
     <mergeCell ref="G26:K26"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
   </mergeCells>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3193,7 +3197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEC284B-3AE1-4B55-8A1E-A66D2EB866A3}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
@@ -4667,10 +4671,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5713142C-F142-4F03-B26C-52F7423AA658}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4725,30 +4729,32 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>88</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="22" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="32"/>
+      <c r="B6" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="39"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="18"/>
-      <c r="B7" s="22"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -4757,20 +4763,18 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="11"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="23" t="s">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -4781,7 +4785,7 @@
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
       <c r="C10" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -4791,128 +4795,128 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
-      <c r="C11" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="C11" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="36"/>
+      <c r="C12" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="27"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="36"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="36"/>
+      <c r="C14" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="27"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
-      <c r="C15" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="13"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="E15" s="13"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="11"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="44"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="12" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="11"/>
+      <c r="G17" s="44"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="12" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="14"/>
-      <c r="G18" s="44"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="14"/>
-      <c r="G19" s="11"/>
+      <c r="G19" s="44"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="18"/>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="18"/>
+      <c r="B22" s="23" t="s">
         <v>61</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="24"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="19"/>
-      <c r="B22" s="23" t="s">
-        <v>99</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -4921,75 +4925,86 @@
       <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="48"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="32" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="48"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="49"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="22" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="49"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="19"/>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="19"/>
+      <c r="B27" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="24"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="14"/>
-      <c r="G27" s="48"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="48"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="11"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/azReportTemplate.xlsx
+++ b/azReportTemplate.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1263" documentId="13_ncr:1_{6F514D47-0C22-46E0-8930-DFE03F6E5842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{9648C1BD-949E-4CA5-B5B0-3C94705DD3D0}"/>
+  <xr:revisionPtr revIDLastSave="1272" documentId="13_ncr:1_{6F514D47-0C22-46E0-8930-DFE03F6E5842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{FBA9CFE8-4E2A-4263-BF7E-0413D58C17BA}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VirtualMachine_windows" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="181">
   <si>
     <t>ResourceGroupName</t>
   </si>
@@ -595,6 +595,10 @@
   </si>
   <si>
     <t>Id</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="0"/>
   </si>
 </sst>
@@ -2830,6 +2834,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
     <mergeCell ref="G27:K27"/>
     <mergeCell ref="G28:K28"/>
     <mergeCell ref="G29:K29"/>
@@ -2840,12 +2850,6 @@
     <mergeCell ref="G24:K24"/>
     <mergeCell ref="G25:K25"/>
     <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
   </mergeCells>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4379,10 +4383,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2942673-D2F7-4759-9B7B-117AC6A1F48F}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4526,42 +4530,42 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="18"/>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="24"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="19"/>
-      <c r="B14" s="30" t="s">
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="18"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="19"/>
+      <c r="B15" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="24"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="11"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="45"/>
+        <v>80</v>
+      </c>
+      <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -4569,31 +4573,31 @@
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="18"/>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="18"/>
+      <c r="B19" s="23" t="s">
         <v>83</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="24"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="19"/>
-      <c r="B19" s="23" t="s">
-        <v>84</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -4602,21 +4606,21 @@
       <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="13"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="23" t="s">
+        <v>84</v>
+      </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="11"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="45"/>
+      <c r="A21" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -4624,10 +4628,10 @@
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="13"/>
+      <c r="A22" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="45"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -4636,7 +4640,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="23" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -4646,21 +4650,32 @@
       <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="46"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="59"/>
+      <c r="A24" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="10"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
+      <c r="G25" s="59"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0"/>
@@ -4673,7 +4688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5713142C-F142-4F03-B26C-52F7423AA658}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>

--- a/azReportTemplate.xlsx
+++ b/azReportTemplate.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1272" documentId="13_ncr:1_{6F514D47-0C22-46E0-8930-DFE03F6E5842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{FBA9CFE8-4E2A-4263-BF7E-0413D58C17BA}"/>
+  <xr:revisionPtr revIDLastSave="1286" documentId="13_ncr:1_{6F514D47-0C22-46E0-8930-DFE03F6E5842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{64A85A5F-5B53-4F1F-97F8-307076F54C19}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VirtualMachine_windows" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="185">
   <si>
     <t>ResourceGroupName</t>
   </si>
@@ -599,6 +599,22 @@
   </si>
   <si>
     <t>id</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>PrincipalId</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>TenantId</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>UserAssignedIdentities</t>
     <phoneticPr fontId="0"/>
   </si>
 </sst>
@@ -1263,10 +1279,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1845,63 +1861,63 @@
       <c r="G52" s="28"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="24"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B54" s="13"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="28"/>
+    </row>
+    <row r="54" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="18"/>
+      <c r="B54" s="23" t="s">
+        <v>181</v>
+      </c>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="14"/>
       <c r="G54" s="24"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A55" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55" s="13"/>
+    <row r="55" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="18"/>
+      <c r="B55" s="23" t="s">
+        <v>182</v>
+      </c>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
       <c r="F55" s="14"/>
       <c r="G55" s="24"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A56" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="13"/>
+    <row r="56" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="18"/>
+      <c r="B56" s="23" t="s">
+        <v>183</v>
+      </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
       <c r="F56" s="14"/>
       <c r="G56" s="24"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A57" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="14"/>
+    <row r="57" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="19"/>
+      <c r="B57" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="35"/>
       <c r="G57" s="24"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -1912,7 +1928,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -1922,26 +1938,70 @@
       <c r="G59" s="24"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A60" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="28"/>
-    </row>
-    <row r="61" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="19"/>
-      <c r="B61" s="23" t="s">
-        <v>178</v>
-      </c>
+      <c r="A60" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="24"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A61" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
       <c r="E61" s="13"/>
       <c r="F61" s="14"/>
       <c r="G61" s="24"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A62" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="24"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A63" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="24"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A64" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="28"/>
+    </row>
+    <row r="65" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="19"/>
+      <c r="B65" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0"/>
@@ -2834,12 +2894,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
     <mergeCell ref="G27:K27"/>
     <mergeCell ref="G28:K28"/>
     <mergeCell ref="G29:K29"/>
@@ -2850,6 +2904,12 @@
     <mergeCell ref="G24:K24"/>
     <mergeCell ref="G25:K25"/>
     <mergeCell ref="G26:K26"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
   </mergeCells>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3199,10 +3259,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEC284B-3AE1-4B55-8A1E-A66D2EB866A3}">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3792,21 +3852,21 @@
       <c r="G53" s="28"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="24"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="28"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A55" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B55" s="13"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="23" t="s">
+        <v>181</v>
+      </c>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
@@ -3814,10 +3874,10 @@
       <c r="G55" s="24"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A56" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B56" s="13"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="23" t="s">
+        <v>182</v>
+      </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
@@ -3825,10 +3885,10 @@
       <c r="G56" s="24"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A57" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" s="13"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="23" t="s">
+        <v>183</v>
+      </c>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
@@ -3836,19 +3896,19 @@
       <c r="G57" s="24"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A58" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="14"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="35"/>
       <c r="G58" s="24"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -3859,7 +3919,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -3869,26 +3929,70 @@
       <c r="G60" s="24"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A61" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="17"/>
+      <c r="A61" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="24"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A62" s="19"/>
-      <c r="B62" s="23" t="s">
-        <v>178</v>
-      </c>
+      <c r="A62" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="13"/>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
       <c r="F62" s="14"/>
       <c r="G62" s="24"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A63" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="24"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A64" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="24"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A65" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="17"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A66" s="19"/>
+      <c r="B66" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0"/>
@@ -4385,7 +4489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2942673-D2F7-4759-9B7B-117AC6A1F48F}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>

--- a/azReportTemplate.xlsx
+++ b/azReportTemplate.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1294" documentId="13_ncr:1_{6F514D47-0C22-46E0-8930-DFE03F6E5842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{C71AEB67-D8EF-4B0F-B7B5-2366C97A8133}"/>
+  <xr:revisionPtr revIDLastSave="1325" documentId="13_ncr:1_{6F514D47-0C22-46E0-8930-DFE03F6E5842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{6A29F6E5-EE3F-4DB9-B28D-2A2E1ABE14C3}"/>
   <bookViews>
-    <workbookView xWindow="7613" yWindow="3495" windowWidth="11985" windowHeight="9585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ResourceGroup" sheetId="31" r:id="rId1"/>
@@ -14,14 +14,15 @@
     <sheet name="DataDisk" sheetId="11" r:id="rId4"/>
     <sheet name="VirtualNetwork" sheetId="14" r:id="rId5"/>
     <sheet name="Subnet" sheetId="16" r:id="rId6"/>
-    <sheet name="Disk" sheetId="17" r:id="rId7"/>
-    <sheet name="Nic" sheetId="18" r:id="rId8"/>
-    <sheet name="Nsg" sheetId="20" r:id="rId9"/>
-    <sheet name="Nsg1stArrayOnlyId" sheetId="22" r:id="rId10"/>
-    <sheet name="Pip" sheetId="24" r:id="rId11"/>
-    <sheet name="StorageAccount" sheetId="25" r:id="rId12"/>
-    <sheet name="StorageAccountAddOn" sheetId="28" r:id="rId13"/>
-    <sheet name="RecoveryServiceVault" sheetId="30" r:id="rId14"/>
+    <sheet name="SubnetAddon" sheetId="32" r:id="rId7"/>
+    <sheet name="Disk" sheetId="17" r:id="rId8"/>
+    <sheet name="Nic" sheetId="18" r:id="rId9"/>
+    <sheet name="Nsg" sheetId="20" r:id="rId10"/>
+    <sheet name="Nsg1stArrayOnlyId" sheetId="22" r:id="rId11"/>
+    <sheet name="Pip" sheetId="24" r:id="rId12"/>
+    <sheet name="StorageAccount" sheetId="25" r:id="rId13"/>
+    <sheet name="StorageAccountAddOn" sheetId="28" r:id="rId14"/>
+    <sheet name="RecoveryServiceVault" sheetId="30" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="187">
   <si>
     <t>ResourceGroupName</t>
   </si>
@@ -617,6 +618,14 @@
   <si>
     <t>UserAssignedIdentities</t>
     <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Service</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Locations</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -887,7 +896,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -965,6 +974,8 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1281,7 +1292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA194B26-76DA-44F3-98B3-49739C4B9F37}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1343,6 +1354,180 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927BCC52-27FB-4E23-A2A2-BC7EB12BA829}">
+  <dimension ref="A1:P9"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="5" width="2.86328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.3984375" style="8" customWidth="1"/>
+    <col min="8" max="16" width="18.3984375" style="4" customWidth="1"/>
+    <col min="17" max="33" width="9" style="4" customWidth="1"/>
+    <col min="34" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="53"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A5" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A6" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="J6" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="L6" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="M6" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="N6" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="O6" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="P6" s="47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A7" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A8" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A9" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BE1B82-836E-45EC-B69B-288B89793565}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -1398,7 +1583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E3EF7C-820D-432B-A7FB-6438523BE62B}">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -1585,7 +1770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8D0706-7E93-4380-BA00-BCF4DC19007E}">
   <dimension ref="A1:K45"/>
   <sheetViews>
@@ -2282,6 +2467,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
     <mergeCell ref="G27:K27"/>
     <mergeCell ref="G28:K28"/>
     <mergeCell ref="G29:K29"/>
@@ -2292,12 +2483,6 @@
     <mergeCell ref="G24:K24"/>
     <mergeCell ref="G25:K25"/>
     <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
   </mergeCells>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2305,7 +2490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7420237C-8AAA-4E15-BCE7-1494E3285D08}">
   <dimension ref="A1:K6"/>
   <sheetViews>
@@ -2403,7 +2588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C204AD-30B3-4F25-B375-EEAFE0F59304}">
   <dimension ref="A1:G20"/>
   <sheetViews>
@@ -4424,7 +4609,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F10" sqref="F10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4559,7 +4744,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="34"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>70</v>
       </c>
       <c r="D12" s="38"/>
@@ -4608,6 +4793,72 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10003C4-5AB9-4D59-9301-5E6E6671B8AB}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="5" width="2.86328125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="21" style="10" customWidth="1"/>
+    <col min="7" max="7" width="70.265625" style="8" customWidth="1"/>
+    <col min="8" max="32" width="9" style="10" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="34"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="71"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="34"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="72"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="34"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="72"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="34"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="72"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2942673-D2F7-4759-9B7B-117AC6A1F48F}">
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -4910,7 +5161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5713142C-F142-4F03-B26C-52F7423AA658}">
   <dimension ref="A1:G29"/>
   <sheetViews>
@@ -5247,178 +5498,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927BCC52-27FB-4E23-A2A2-BC7EB12BA829}">
-  <dimension ref="A1:P9"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="5" width="2.86328125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.265625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="18.3984375" style="8" customWidth="1"/>
-    <col min="8" max="16" width="18.3984375" style="4" customWidth="1"/>
-    <col min="17" max="33" width="9" style="4" customWidth="1"/>
-    <col min="34" max="16384" width="9" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="53"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="14"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="I6" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="J6" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="K6" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="L6" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="M6" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="N6" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="O6" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="P6" s="47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A7" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A8" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A9" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="0"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
 </file>
--- a/azReportTemplate.xlsx
+++ b/azReportTemplate.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1325" documentId="13_ncr:1_{6F514D47-0C22-46E0-8930-DFE03F6E5842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{6A29F6E5-EE3F-4DB9-B28D-2A2E1ABE14C3}"/>
+  <xr:revisionPtr revIDLastSave="1349" documentId="13_ncr:1_{6F514D47-0C22-46E0-8930-DFE03F6E5842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{761A4152-8B12-45BE-8C1C-93BF2751A493}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ResourceGroup" sheetId="31" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="190">
   <si>
     <t>ResourceGroupName</t>
   </si>
@@ -625,6 +625,18 @@
   </si>
   <si>
     <t>Locations</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ServiceName</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Actions</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -896,7 +908,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -965,6 +977,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -974,8 +989,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1567,11 +1580,11 @@
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
       <c r="F2" s="14"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="70"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1971,11 +1984,11 @@
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="70"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="73"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="18"/>
@@ -1986,11 +1999,11 @@
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="70"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="73"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="18"/>
@@ -2001,11 +2014,11 @@
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="70"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="73"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="18"/>
@@ -2016,11 +2029,11 @@
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="70"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="73"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="18"/>
@@ -2031,11 +2044,11 @@
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="70"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="73"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="18"/>
@@ -2046,11 +2059,11 @@
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="70"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="73"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="18"/>
@@ -2061,11 +2074,11 @@
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="70"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="73"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="18"/>
@@ -2076,11 +2089,11 @@
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="70"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="73"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="23" t="s">
@@ -2121,11 +2134,11 @@
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="70"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="73"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="18"/>
@@ -2136,11 +2149,11 @@
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="70"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="73"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="18"/>
@@ -2151,11 +2164,11 @@
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="70"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="73"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="18"/>
@@ -2166,11 +2179,11 @@
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="70"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="73"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="18"/>
@@ -2181,11 +2194,11 @@
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="70"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="73"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="18"/>
@@ -2196,11 +2209,11 @@
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="70"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="73"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="18"/>
@@ -2211,11 +2224,11 @@
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="70"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="73"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="18"/>
@@ -2226,11 +2239,11 @@
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="70"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="73"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="23" t="s">
@@ -4606,10 +4619,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3636520E-3884-4B30-8FCE-7FCC91B5E23D}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:G10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4777,13 +4790,16 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="34"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>73</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="14"/>
       <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C16" s="41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0"/>
@@ -4794,10 +4810,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10003C4-5AB9-4D59-9301-5E6E6671B8AB}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4815,7 +4831,7 @@
       <c r="C1" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="71"/>
+      <c r="D1" s="68"/>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="17"/>
@@ -4827,7 +4843,7 @@
       <c r="D2" s="22"/>
       <c r="E2" s="16"/>
       <c r="F2" s="37"/>
-      <c r="G2" s="72"/>
+      <c r="G2" s="69"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="34"/>
@@ -4838,7 +4854,7 @@
         <v>185</v>
       </c>
       <c r="F3" s="14"/>
-      <c r="G3" s="72"/>
+      <c r="G3" s="69"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="34"/>
@@ -4849,7 +4865,51 @@
         <v>186</v>
       </c>
       <c r="F4" s="14"/>
-      <c r="G4" s="72"/>
+      <c r="G4" s="69"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="34"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="36"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="25"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="25"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="25"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
